--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731416869981" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731429385283" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731429435277" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731430015304" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731430645645" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291276019091" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912780746145" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912780756214" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912781299708" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291278223159" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731416549938.csv</t>
+          <t>go_stims-16502912759695675.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731416689935.csv</t>
+          <t>GNG_stims-16502912759850729.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731416709979.csv</t>
+          <t>go_stims-1650291275987072.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731416859963.csv</t>
+          <t>GNG_stims-16502912760167515.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731422615297.csv</t>
+          <t>ZB-match_9-16502912768953314.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731428175309.csv</t>
+          <t>ZB-match_2-16502912762733574.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731426275303.csv</t>
+          <t>OB-16502912771418693.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498731422375278.csv</t>
+          <t>OB-1650291277588088.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873141758992.csv</t>
+          <t>TB-1650291277728235.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873142351532.csv</t>
+          <t>OB-16502912776175034.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731419585311.csv</t>
+          <t>TB-16502912780572512.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498731429225338.csv</t>
+          <t>TB-16502912779117632.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498731420165653.csv</t>
+          <t>ZB-match_5-1650291276579719.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873142969534.csv</t>
+          <t>MM_stims-16502912780902958.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873142945532.csv</t>
+          <t>ZM_stims-1650291278077617.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731429855275.csv</t>
+          <t>MM_stims-16502912781132019.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731429705284.csv</t>
+          <t>ZM_stims-16502912780912523.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731430005271.csv</t>
+          <t>MM_stims-16502912781286247.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731429865284.csv</t>
+          <t>ZM_stims-16502912781132019.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731430325634.csv</t>
+          <t>vSAT_stims-1650291278176647.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731430055296.csv</t>
+          <t>SAT_stims-16502912781596005.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873143048564.csv</t>
+          <t>SAT_stims-16502912781339705.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731430165272.csv</t>
+          <t>vSAT_stims-16502912782073038.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291276019091" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912780746145" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912780756214" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912781299708" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291278223159" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477887014017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778876760848" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778876780167" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778877250175" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778877880495" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912759695675.csv</t>
+          <t>go_stims-16504778869734414.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912759850729.csv</t>
+          <t>GNG_stims-16504778869964385.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291275987072.csv</t>
+          <t>go_stims-1650477886997439.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912760167515.csv</t>
+          <t>GNG_stims-16504778870120165.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912768953314.csv</t>
+          <t>TB-16504778875240204.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912762733574.csv</t>
+          <t>TB-16504778876550527.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912771418693.csv</t>
+          <t>OB-16504778873950171.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291277588088.csv</t>
+          <t>OB-16504778872720516.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650291277728235.csv</t>
+          <t>ZB-match_5-16504778872350192.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502912776175034.csv</t>
+          <t>ZB-match_3-16504778871070518.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912780572512.csv</t>
+          <t>TB-16504778875820217.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912779117632.csv</t>
+          <t>ZB-match_5-16504778870340207.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650291276579719.csv</t>
+          <t>OB-1650477887459022.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912780902958.csv</t>
+          <t>MM_stims-16504778876920488.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291278077617.csv</t>
+          <t>ZM_stims-16504778876800177.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912781132019.csv</t>
+          <t>MM_stims-16504778877080512.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912780912523.csv</t>
+          <t>ZM_stims-16504778876930199.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912781286247.csv</t>
+          <t>MM_stims-16504778877240498.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912781132019.csv</t>
+          <t>ZM_stims-16504778877090197.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291278176647.csv</t>
+          <t>SAT_stims-16504778877280247.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912781596005.csv</t>
+          <t>vSAT_stims-16504778877720494.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912781339705.csv</t>
+          <t>SAT_stims-1650477887740017.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912782073038.csv</t>
+          <t>vSAT_stims-16504778877560515.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477887014017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778876760848" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778876780167" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778877250175" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778877880495" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996185596717" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961882129385" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961882129385" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961882848895" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996188348856" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778869734414.csv</t>
+          <t>go_stims-16509961855647092.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778869964385.csv</t>
+          <t>GNG_stims-16509961855807104.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477886997439.csv</t>
+          <t>go_stims-16509961855807104.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778870120165.csv</t>
+          <t>GNG_stims-1650996185596717.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504778875240204.csv</t>
+          <t>ZB-match_8-16509961857648528.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778876550527.csv</t>
+          <t>ZB-match_0-16509961862128587.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778873950171.csv</t>
+          <t>OB-16509961865088506.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778872720516.csv</t>
+          <t>OB-16509961867968934.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778872350192.csv</t>
+          <t>ZB-match_1-16509961856127052.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778871070518.csv</t>
+          <t>TB-16509961878848526.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778875820217.csv</t>
+          <t>TB-16509961879648504.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778870340207.csv</t>
+          <t>OB-16509961871088865.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1650477887459022.csv</t>
+          <t>TB-16509961881968522.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778876920488.csv</t>
+          <t>MM_stims-16509961882448866.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778876800177.csv</t>
+          <t>ZM_stims-16509961882208536.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778877080512.csv</t>
+          <t>MM_stims-16509961882608871.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778876930199.csv</t>
+          <t>ZM_stims-16509961882448866.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778877240498.csv</t>
+          <t>MM_stims-16509961882848895.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778877090197.csv</t>
+          <t>ZM_stims-16509961882608871.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778877280247.csv</t>
+          <t>SAT_stims-16509961883008556.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778877720494.csv</t>
+          <t>vSAT_stims-16509961883168945.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477887740017.csv</t>
+          <t>vSAT_stims-1650996188332888.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778877560515.csv</t>
+          <t>SAT_stims-16509961882848895.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996185596717" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961882129385" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961882129385" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961882848895" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996188348856" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168788503177" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687908473377" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687908483384" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168790901999" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687909952497" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961855647092.csv</t>
+          <t>go_stims-1651168788470268.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961855807104.csv</t>
+          <t>GNG_stims-16511687884864688.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961855807104.csv</t>
+          <t>go_stims-1651168788488522.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996185596717.csv</t>
+          <t>GNG_stims-16511687885020905.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509961857648528.csv</t>
+          <t>TB-16511687906133595.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961862128587.csv</t>
+          <t>OB-16511687895888684.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961865088506.csv</t>
+          <t>ZB-match_1-16511687889557023.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961867968934.csv</t>
+          <t>TB-1651168790827463.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961856127052.csv</t>
+          <t>OB-16511687894708748.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961878848526.csv</t>
+          <t>ZB-match_0-16511687887473655.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961879648504.csv</t>
+          <t>ZB-match_6-16511687890541265.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961871088865.csv</t>
+          <t>TB-16511687902622168.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961881968522.csv</t>
+          <t>OB-16511687896532602.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961882448866.csv</t>
+          <t>MM_stims-1651168790863413.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961882208536.csv</t>
+          <t>ZM_stims-16511687908504066.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961882608871.csv</t>
+          <t>MM_stims-16511687908790789.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961882448866.csv</t>
+          <t>ZM_stims-16511687908644133.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961882848895.csv</t>
+          <t>MM_stims-16511687909010339.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961882608871.csv</t>
+          <t>ZM_stims-16511687908800852.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961883008556.csv</t>
+          <t>SAT_stims-16511687909327872.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961883168945.csv</t>
+          <t>vSAT_stims-1651168790948446.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996188332888.csv</t>
+          <t>vSAT_stims-16511687909793124.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961882848895.csv</t>
+          <t>SAT_stims-16511687909067614.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168788503177" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687908473377" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687908483384" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168790901999" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687909952497" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556133698473" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556171967742" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556171977751" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556172617767" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556173407753" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168788470268.csv</t>
+          <t>go_stims-16512556133378444.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687884864688.csv</t>
+          <t>GNG_stims-16512556133518429.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168788488522.csv</t>
+          <t>go_stims-1651255613353846.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687885020905.csv</t>
+          <t>GNG_stims-16512556133688464.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687906133595.csv</t>
+          <t>ZB-match_0-16512556142200906.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687895888684.csv</t>
+          <t>TB-16512556171717782.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687889557023.csv</t>
+          <t>ZB-match_3-16512556139952965.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1651168790827463.csv</t>
+          <t>TB-16512556165937736.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687894708748.csv</t>
+          <t>OB-16512556162927752.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687887473655.csv</t>
+          <t>ZB-match_4-1651255613659351.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16511687890541265.csv</t>
+          <t>OB-1651255615261636.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687902622168.csv</t>
+          <t>OB-16512556158187742.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511687896532602.csv</t>
+          <t>TB-16512556164257746.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168790863413.csv</t>
+          <t>MM_stims-16512556172287743.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687908504066.csv</t>
+          <t>ZM_stims-16512556172047749.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687908790789.csv</t>
+          <t>MM_stims-16512556172447758.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687908644133.csv</t>
+          <t>ZM_stims-16512556172307792.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687909010339.csv</t>
+          <t>MM_stims-16512556172607734.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687908800852.csv</t>
+          <t>ZM_stims-16512556172457752.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687909327872.csv</t>
+          <t>vSAT_stims-16512556173257737.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168790948446.csv</t>
+          <t>SAT_stims-16512556172927768.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687909793124.csv</t>
+          <t>SAT_stims-16512556172667773.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687909067614.csv</t>
+          <t>vSAT_stims-16512556173087745.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_44/participant_44_task_orders.xlsx
+++ b/participants/participant_44/participant_44_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556133698473" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556171967742" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556171977751" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556172617767" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556173407753" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515890386885605" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651589038735342" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651589038735342" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-1651589038766591" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890388290935" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556133378444.csv</t>
+          <t>OB-1651589036300285.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556133518429.csv</t>
+          <t>TB-16515890386728728.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255613353846.csv</t>
+          <t>ZB-match_6-1651589035779485.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556133688464.csv</t>
+          <t>TB-16515890370116181.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-1651589036445949.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_0-16515890359616363.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZB-match_8-1651589035826366.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OB-1651589036399074.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515890361044407.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512556142200906.csv</t>
+          <t>MM_stims-16515890387041273.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512556171717782.csv</t>
+          <t>ZM_stims-16515890386885605.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16512556139952965.csv</t>
+          <t>MM_stims-1651589038719717.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512556165937736.csv</t>
+          <t>ZM_stims-16515890387041273.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512556162927752.csv</t>
+          <t>MM_stims-1651589038735342.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255613659351.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OB-1651255615261636.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512556158187742.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TB-16512556164257746.csv</t>
+          <t>ZM_stims-1651589038719717.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +652,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +698,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556172287743.csv</t>
+          <t>go_stims-1651589038735342.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +708,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556172047749.csv</t>
+          <t>GNG_stims-16515890387509677.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556172447758.csv</t>
+          <t>go_stims-16515890387509677.csv</t>
         </is>
       </c>
     </row>
@@ -708,27 +728,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556172307792.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556172607734.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556172457752.csv</t>
+          <t>GNG_stims-1651589038766591.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556173257737.csv</t>
+          <t>vSAT_stims-16515890388134685.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556172927768.csv</t>
+          <t>SAT_stims-1651589038766591.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512556172667773.csv</t>
+          <t>vSAT_stims-1651589038797844.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512556173087745.csv</t>
+          <t>SAT_stims-16515890387822154.csv</t>
         </is>
       </c>
     </row>
